--- a/biology/Histoire de la zoologie et de la botanique/Max_Beier/Max_Beier.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Max_Beier/Max_Beier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Max Beier est un entomologiste et arachnologiste autrichien, né le 6 avril 1903 à Spittal an der Drau en Carinthie et mort le 6 juillet 1979 à Vienne.
 Il entre en 1923 à l’université de Vienne où il obtient son titre de docteur en 1927. Il travaille à ce moment bénévolement au musée d'histoire naturelle de Vienne, où il travaille d’abord sur les coléoptères et leurs larves. Il découvre tout à fait par hasard un pseudoscorpion dans un récipient et il commence alors à s’intéresser à ces arachnides, sur lesquels il publie la moitié de ses 252 publications scientifiques.
@@ -512,7 +524,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) Volker Mahnert, « Professor Dr Max Beier, 1903-1979 », Bulletin of the British Arachnological Society, vol. 5, no 3,‎ 1980, p. 115-116 (lire en ligne).</t>
         </is>
